--- a/dataType/tumour.xlsx
+++ b/dataType/tumour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\dataType\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E616C8D2-E96B-483B-AC1D-291D140F1BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF52A843-5E05-496E-B9B6-FB834FA82DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>patient_id</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
 brain_tumour
 haematological_malignancy_solid_sample
 haematological_malignancy_liquid_sample</t>
+  </si>
+  <si>
+    <t>participant_id</t>
   </si>
 </sst>
 </file>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,13 +456,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -470,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -484,13 +484,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -512,13 +512,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="163.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -526,10 +526,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
